--- a/Project Management/Traceability Matrix.xlsx
+++ b/Project Management/Traceability Matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenny/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kenny\Documents\GitHub\CS-4800-Server-Psychiatry-App\Project Management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79120547-CC30-8D4F-9718-85A24598019A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502373AA-6820-49E7-AF47-3819EE6D782C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="25440" windowHeight="14080" xr2:uid="{F98E41E8-240F-0A4D-9EBE-94B1211CAD6E}"/>
+    <workbookView xWindow="165" yWindow="1500" windowWidth="15570" windowHeight="13125" xr2:uid="{F98E41E8-240F-0A4D-9EBE-94B1211CAD6E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>REQUIREMENTS</t>
   </si>
@@ -51,9 +51,6 @@
     <t>REQ 5</t>
   </si>
   <si>
-    <t>REQ 6`</t>
-  </si>
-  <si>
     <t>Test Cases</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
   </si>
   <si>
     <t>TC5</t>
-  </si>
-  <si>
-    <t>TC6</t>
   </si>
   <si>
     <t>X</t>
@@ -452,12 +446,12 @@
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,16 +471,14 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -494,16 +486,25 @@
       <c r="D2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
@@ -511,64 +512,73 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
